--- a/documents/cachesize.xlsx
+++ b/documents/cachesize.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Line Size</t>
   </si>
@@ -37,12 +37,54 @@
   </si>
   <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>Fully Associative Cache Calculation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Misses</t>
+  </si>
+  <si>
+    <t>Hit%</t>
+  </si>
+  <si>
+    <t>Miss%</t>
+  </si>
+  <si>
+    <t>Index Width</t>
+  </si>
+  <si>
+    <t>Word Width</t>
+  </si>
+  <si>
+    <t>Tag Width</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -72,10 +114,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,15 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +444,7 @@
         <v>7958</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -399,7 +456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -408,7 +465,7 @@
         <v>13.041809816306262</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -427,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -443,6 +500,710 @@
       </c>
       <c r="E5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <f>(8*(2^21)/(1+1+32*16+26))</f>
+        <v>31068.91851851852</v>
+      </c>
+      <c r="C7">
+        <v>31068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <f>(8*(2^21)/(1+1+32*16+26))</f>
+        <v>31068.91851851852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <f>8*2^21</f>
+        <v>16777216</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>2*B14</f>
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <f>LOG(D14)/LOG(2)</f>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f>32-F14-2</f>
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <f>$F$11/(32*D14+1+1+H14)</f>
+        <v>31068.91851851852</v>
+      </c>
+      <c r="K14">
+        <v>31068</v>
+      </c>
+      <c r="L14">
+        <f>LOG(J14)/LOG(2)</f>
+        <v>14.923184402949168</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M20" si="0">32*D14/8</f>
+        <v>64</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P19" si="1">N14+O14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="e">
+        <f t="shared" ref="Q14:Q19" si="2">N14/P14*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="2" t="e">
+        <f t="shared" ref="R14:R19" si="3">O14/P14*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D17" si="4">2*B15</f>
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F17" si="5">LOG(D15)/LOG(2)</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H17" si="6">32-F15-2</f>
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J17" si="7">$F$11/(32*D15+1+1+H15)</f>
+        <v>15963.09800190295</v>
+      </c>
+      <c r="K15">
+        <v>15963</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <f>2*B16</f>
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>8089.303760848602</v>
+      </c>
+      <c r="K16">
+        <v>8089</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>4071.1516622179083</v>
+      </c>
+      <c r="K17">
+        <v>4071</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D24" si="8">2*B18</f>
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F23" si="9">LOG(D18)/LOG(2)</f>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H23" si="10">32-F18-2</f>
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J23" si="11">$F$11/(32*D18+1+1+H18)</f>
+        <v>2042.0175267770205</v>
+      </c>
+      <c r="K18">
+        <v>2042</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19">
+        <v>256</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="11"/>
+        <v>1022.5645151459743</v>
+      </c>
+      <c r="K19">
+        <v>1022</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="N19">
+        <v>999696</v>
+      </c>
+      <c r="O19">
+        <v>306</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1000002</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="2"/>
+        <v>99.969400061199877</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0599938800122399E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>511.65648063433974</v>
+      </c>
+      <c r="K20">
+        <v>511</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="N20">
+        <v>999825</v>
+      </c>
+      <c r="O20">
+        <v>177</v>
+      </c>
+      <c r="P20">
+        <f>N20+O20</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>N20/P20*100</f>
+        <v>99.98230003539993</v>
+      </c>
+      <c r="R20" s="3">
+        <f>O20/P20*100</f>
+        <v>1.7699964600070801E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21">
+        <v>1024</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>2048</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>255.91799502722822</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="M21">
+        <f>32*D21/8</f>
+        <v>8192</v>
+      </c>
+      <c r="N21">
+        <v>999901</v>
+      </c>
+      <c r="O21">
+        <v>101</v>
+      </c>
+      <c r="P21">
+        <f>N21+O21</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>N21/P21*100</f>
+        <v>99.989900020199968</v>
+      </c>
+      <c r="R21" s="3">
+        <f>O21/P21*100</f>
+        <v>1.00999798000404E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22">
+        <v>2048</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>127.98047172977756</v>
+      </c>
+      <c r="K22">
+        <v>127</v>
+      </c>
+      <c r="M22">
+        <f>32*D22/8</f>
+        <v>16384</v>
+      </c>
+      <c r="N22">
+        <v>999949</v>
+      </c>
+      <c r="O22">
+        <v>53</v>
+      </c>
+      <c r="P22">
+        <f>N22+O22</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>N22/P22*100</f>
+        <v>99.994700010599985</v>
+      </c>
+      <c r="R22" s="3">
+        <f>O22/P22*100</f>
+        <v>5.2999894000211999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23">
+        <v>4096</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>8192</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="11"/>
+        <v>63.995361664308085</v>
+      </c>
+      <c r="K23">
+        <v>63</v>
+      </c>
+      <c r="M23">
+        <f>32*D23/8</f>
+        <v>32768</v>
+      </c>
+      <c r="N23">
+        <v>999974</v>
+      </c>
+      <c r="O23">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <f>N23+O23</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>N23/P23*100</f>
+        <v>99.997200005599979</v>
+      </c>
+      <c r="R23" s="3">
+        <f>O23/P23*100</f>
+        <v>2.7999944000112E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24">
+        <f>B23*2</f>
+        <v>8192</v>
+      </c>
+      <c r="D24">
+        <f>2*B24</f>
+        <v>16384</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="12">LOG(D24)/LOG(2)</f>
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24" si="13">32-F24-2</f>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="14">$F$11/(32*D24+1+1+H24)</f>
+        <v>31.998901404904771</v>
+      </c>
+      <c r="K24">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <f>32*D24/8</f>
+        <v>65536</v>
+      </c>
+      <c r="N24">
+        <v>999987</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <f>N24+O24</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>N24/P24*100</f>
+        <v>99.99850000299999</v>
+      </c>
+      <c r="R24" s="3">
+        <f>O24/P24*100</f>
+        <v>1.4999970000060001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25">
+        <f>B24*2</f>
+        <v>16384</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D27" si="15">2*B25</f>
+        <v>32768</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F27" si="16">LOG(D25)/LOG(2)</f>
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H27" si="17">32-F25-2</f>
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J27" si="18">$F$11/(32*D25+1+1+H25)</f>
+        <v>15.999740604791373</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M27" si="19">32*D25/8</f>
+        <v>131072</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26">
+        <f t="shared" ref="B26:B27" si="20">B25*2</f>
+        <v>32768</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="15"/>
+        <v>65536</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="18"/>
+        <v>7.9999389653094077</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="19"/>
+        <v>262144</v>
+      </c>
+      <c r="N26">
+        <v>999996</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <f>N26+O26</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>N26/P26*100</f>
+        <v>99.999400001200001</v>
+      </c>
+      <c r="R26" s="3">
+        <f>O26/P26*100</f>
+        <v>5.9999880000239996E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27">
+        <f t="shared" si="20"/>
+        <v>65536</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="15"/>
+        <v>131072</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="18"/>
+        <v>3.999985694936413</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="19"/>
+        <v>524288</v>
+      </c>
+      <c r="P27">
+        <f>N26+O27</f>
+        <v>999996</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>N26/P27*100</f>
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" ref="R25:R27" si="21">O27/P27*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/documents/cachesize.xlsx
+++ b/documents/cachesize.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Fully Associatve" sheetId="1" r:id="rId1"/>
+    <sheet name="4-Way Set" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Line Size</t>
   </si>
@@ -76,6 +76,84 @@
   </si>
   <si>
     <t>Tag Width</t>
+  </si>
+  <si>
+    <t>Number of Ways</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>Number of Words</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Number of Bytes</t>
+  </si>
+  <si>
+    <t>Byte/line</t>
+  </si>
+  <si>
+    <t>Words/Line</t>
+  </si>
+  <si>
+    <t>Bust Length</t>
+  </si>
+  <si>
+    <t>/Cache Line Fill</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Word Select</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Address bit width</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>LSB</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>kbytes</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>PLRU</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>Burst Length</t>
+  </si>
+  <si>
+    <t>Line Size (words)</t>
+  </si>
+  <si>
+    <t>Line Size (byte)</t>
+  </si>
+  <si>
+    <t># of Lines</t>
   </si>
 </sst>
 </file>
@@ -83,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -102,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,22 +188,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +539,7 @@
         <v>7958</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -456,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,7 +560,7 @@
         <v>13.041809816306262</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -484,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -502,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7">
         <f>(8*(2^21)/(1+1+32*16+26))</f>
         <v>31068.91851851852</v>
@@ -511,13 +606,13 @@
         <v>31068</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9">
         <f>(8*(2^21)/(1+1+32*16+26))</f>
         <v>31068.91851851852</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="F10">
         <v>2</v>
       </c>
@@ -525,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -536,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <f>8*2^21</f>
+        <f>8*F10^21</f>
         <v>16777216</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -548,7 +643,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -568,7 +663,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:20">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -605,8 +700,14 @@
       <c r="R13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14">
         <v>8</v>
       </c>
@@ -650,7 +751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="B15">
         <v>16</v>
       </c>
@@ -690,7 +791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="B16">
         <v>32</v>
       </c>
@@ -730,7 +831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:20">
       <c r="B17">
         <v>64</v>
       </c>
@@ -770,12 +871,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:20">
       <c r="B18">
         <v>128</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D24" si="8">2*B18</f>
+        <f t="shared" ref="D18:D23" si="8">2*B18</f>
         <v>256</v>
       </c>
       <c r="F18">
@@ -810,7 +911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:20">
       <c r="B19">
         <v>256</v>
       </c>
@@ -855,8 +956,16 @@
         <f t="shared" si="3"/>
         <v>3.0599938800122399E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="S19">
+        <f>((32*D19)+2+H19)*K19</f>
+        <v>16767954</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T25" si="12">S19/(2^20)/8</f>
+        <v>1.9988958835601807</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20">
         <v>512</v>
       </c>
@@ -901,8 +1010,16 @@
         <f>O20/P20*100</f>
         <v>1.7699964600070801E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="S20">
+        <f t="shared" ref="S19:S21" si="13">(M20*8+2+H20)*K20</f>
+        <v>16755690</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>1.9974339008331299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21">
         <v>1024</v>
       </c>
@@ -947,8 +1064,16 @@
         <f>O21/P21*100</f>
         <v>1.00999798000404E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="S21">
+        <f t="shared" si="13"/>
+        <v>16717035</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>1.9928258657455444</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22">
         <v>2048</v>
       </c>
@@ -993,8 +1118,16 @@
         <f>O22/P22*100</f>
         <v>5.2999894000211999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="S22">
+        <f t="shared" ref="S22:S25" si="14">(M22*8+2+H22)*K22</f>
+        <v>16648684</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>1.984677791595459</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23">
         <v>4096</v>
       </c>
@@ -1039,8 +1172,16 @@
         <f>O23/P23*100</f>
         <v>2.7999944000112E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="S23">
+        <f t="shared" si="14"/>
+        <v>16516269</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>1.9688926935195923</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24">
         <f>B23*2</f>
         <v>8192</v>
@@ -1050,15 +1191,15 @@
         <v>16384</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="12">LOG(D24)/LOG(2)</f>
+        <f t="shared" ref="F24" si="15">LOG(D24)/LOG(2)</f>
         <v>14</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="13">32-F24-2</f>
+        <f t="shared" ref="H24" si="16">32-F24-2</f>
         <v>16</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="14">$F$11/(32*D24+1+1+H24)</f>
+        <f t="shared" ref="J24" si="17">$F$11/(32*D24+1+1+H24)</f>
         <v>31.998901404904771</v>
       </c>
       <c r="K24">
@@ -1086,64 +1227,96 @@
         <f>O24/P24*100</f>
         <v>1.4999970000060001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="S24">
+        <f t="shared" si="14"/>
+        <v>16253486</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>1.9375665187835693</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25">
         <f>B24*2</f>
         <v>16384</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D27" si="15">2*B25</f>
+        <f t="shared" ref="D25:D27" si="18">2*B25</f>
         <v>32768</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" si="16">LOG(D25)/LOG(2)</f>
+        <f t="shared" ref="F25:F27" si="19">LOG(D25)/LOG(2)</f>
         <v>15</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H27" si="17">32-F25-2</f>
+        <f t="shared" ref="H25:H27" si="20">32-F25-2</f>
         <v>15</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J27" si="18">$F$11/(32*D25+1+1+H25)</f>
+        <f t="shared" ref="J25:J27" si="21">$F$11/(32*D25+1+1+H25)</f>
         <v>15.999740604791373</v>
       </c>
       <c r="K25">
         <v>15</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M27" si="19">32*D25/8</f>
+        <f t="shared" ref="M25:M27" si="22">32*D25/8</f>
         <v>131072</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="N25">
+        <v>999993</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <f>N25+O25</f>
+        <v>1000002</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>N25/P25*100</f>
+        <v>99.999100001800002</v>
+      </c>
+      <c r="R25" s="3">
+        <f>O25/P25*100</f>
+        <v>8.999982000036E-4</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="14"/>
+        <v>15728895</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>1.8750303983688354</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26">
-        <f t="shared" ref="B26:B27" si="20">B25*2</f>
+        <f t="shared" ref="B26:B27" si="23">B25*2</f>
         <v>32768</v>
       </c>
       <c r="D26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>65536</v>
       </c>
       <c r="F26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="J26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.9999389653094077</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
       <c r="M26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>262144</v>
       </c>
       <c r="N26">
@@ -1164,46 +1337,54 @@
         <f>O26/P26*100</f>
         <v>5.9999880000239996E-4</v>
       </c>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="S26">
+        <f>(M26*8+2+H26)*K26</f>
+        <v>14680176</v>
+      </c>
+      <c r="T26">
+        <f>S26/(2^20)/8</f>
+        <v>1.7500133514404297</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27">
+        <f t="shared" si="23"/>
+        <v>65536</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="18"/>
+        <v>131072</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="20"/>
-        <v>65536</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="15"/>
-        <v>131072</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="16"/>
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="J27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.999985694936413</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="M27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>524288</v>
       </c>
-      <c r="P27">
-        <f>N26+O27</f>
-        <v>999996</v>
-      </c>
-      <c r="Q27" s="3">
-        <f>N26/P27*100</f>
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" ref="R25:R27" si="21">O27/P27*100</f>
-        <v>0</v>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="M30">
+        <f>(M26*8+2+H26)*6</f>
+        <v>12583008</v>
+      </c>
+      <c r="N30">
+        <f>M30/(1024^2*8)</f>
+        <v>1.5000114440917969</v>
       </c>
     </row>
   </sheetData>
@@ -1214,24 +1395,768 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <f>32-SUM(I5:I7)</f>
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f>I8-1</f>
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <f>K4-I4+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1024</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>LOG(D5,2)</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>L4-1</f>
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f>K5-I5+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <f>LOG(D8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K7" si="0">L5-1</f>
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L7" si="1">K6-I6+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <f>D7*8/32</f>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I4:I7)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f>D7*8/64</f>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <f>32-SUM(I15:I17)</f>
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <f>I18-1</f>
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <f>K14-I14+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <f>LOG(D15,2)</f>
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <f>L14-1</f>
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <f>K15-I15+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <f>LOG(D18,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K17" si="2">L15-1</f>
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L17" si="3">K16-I16+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <f>D17*8/32</f>
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f>SUM(I14:I17)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f>D17*8/64</f>
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <f>(D17*8+1+1+I14)*D15*D13</f>
+        <v>136704</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>D21/8</f>
+        <v>17088</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <f>G21/1024</f>
+        <v>16.6875</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <f>(D17*8+1+1+I14)*D15*D13+3*D15</f>
+        <v>136896</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f>D22/8</f>
+        <v>17112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <f>G22/1024</f>
+        <v>16.7109375</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <f>(D17*8+1+1+I14)*D15*D13+2*D3*D15</f>
+        <v>137216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f>D23/8</f>
+        <v>17152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <f>G23/1024</f>
+        <v>16.75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <f>32-SUM(I27:I29)</f>
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <f>I30-1</f>
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <f>K26-I26+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <f>LOG(D27,2)</f>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f>L26-1</f>
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <f>K27-I27+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <f>LOG(D30,2)</f>
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K30" si="4">L27-1</f>
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L29" si="5">K28-I28+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <f>D29*8/32</f>
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <f>SUM(I26:I29)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <f>D29*8/64</f>
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A8:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickTop="1">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B14" si="0">2*A9</f>
+        <v>2048</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <f>32*B9/8</f>
+        <v>8192</v>
+      </c>
+      <c r="E9">
+        <v>999901</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <f>E9+F9</f>
+        <v>1000002</v>
+      </c>
+      <c r="H9" s="3">
+        <f>E9/G9*100</f>
+        <v>99.989900020199968</v>
+      </c>
+      <c r="I9" s="3">
+        <f>F9/G9*100</f>
+        <v>1.00999798000404E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2048</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C10">
+        <v>127</v>
+      </c>
+      <c r="D10">
+        <f>32*B10/8</f>
+        <v>16384</v>
+      </c>
+      <c r="E10">
+        <v>999949</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <f>E10+F10</f>
+        <v>1000002</v>
+      </c>
+      <c r="H10" s="3">
+        <f>E10/G10*100</f>
+        <v>99.994700010599985</v>
+      </c>
+      <c r="I10" s="3">
+        <f>F10/G10*100</f>
+        <v>5.2999894000211999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>4096</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <f>32*B11/8</f>
+        <v>32768</v>
+      </c>
+      <c r="E11">
+        <v>999974</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <f>E11+F11</f>
+        <v>1000002</v>
+      </c>
+      <c r="H11" s="3">
+        <f>E11/G11*100</f>
+        <v>99.997200005599979</v>
+      </c>
+      <c r="I11" s="3">
+        <f>F11/G11*100</f>
+        <v>2.7999944000112E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <f>A11*2</f>
+        <v>8192</v>
+      </c>
+      <c r="B12">
+        <f>2*A12</f>
+        <v>16384</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <f>32*B12/8</f>
+        <v>65536</v>
+      </c>
+      <c r="E12">
+        <v>999987</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f>E12+F12</f>
+        <v>1000002</v>
+      </c>
+      <c r="H12" s="3">
+        <f>E12/G12*100</f>
+        <v>99.99850000299999</v>
+      </c>
+      <c r="I12" s="3">
+        <f>F12/G12*100</f>
+        <v>1.4999970000060001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <f>A12*2</f>
+        <v>16384</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B14" si="1">2*A13</f>
+        <v>32768</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D14" si="2">32*B13/8</f>
+        <v>131072</v>
+      </c>
+      <c r="E13">
+        <v>999993</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f>E13+F13</f>
+        <v>1000002</v>
+      </c>
+      <c r="H13" s="3">
+        <f>E13/G13*100</f>
+        <v>99.999100001800002</v>
+      </c>
+      <c r="I13" s="3">
+        <f>F13/G13*100</f>
+        <v>8.999982000036E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <f t="shared" ref="A14" si="3">A13*2</f>
+        <v>32768</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="E14">
+        <v>999996</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f>E14+F14</f>
+        <v>1000002</v>
+      </c>
+      <c r="H14" s="3">
+        <f>E14/G14*100</f>
+        <v>99.999400001200001</v>
+      </c>
+      <c r="I14" s="3">
+        <f>F14/G14*100</f>
+        <v>5.9999880000239996E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/cachesize.xlsx
+++ b/documents/cachesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fully Associatve" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
